--- a/data/trans_orig/Q23_tabaco-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q23_tabaco-Edad-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>15.48461686208797</v>
+        <v>15.48557180218811</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>15.51656784408378</v>
+        <v>15.46259258701091</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15.42202000690804</v>
+        <v>15.3862287712441</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15.42583999142334</v>
+        <v>15.45653196995305</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>15.52003499278107</v>
+        <v>15.53283491155858</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>15.0169551929896</v>
+        <v>15.00770238598701</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>14.87198634455986</v>
+        <v>14.87988279094672</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>15.62722219294923</v>
+        <v>15.53065168529458</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>15.56366154645913</v>
+        <v>15.5913640081475</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>15.34114907448641</v>
+        <v>15.33682014082726</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15.30510976185327</v>
+        <v>15.26658250475859</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>15.71009945026042</v>
+        <v>15.69075001996242</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.03963255800166</v>
+        <v>16.05263079155598</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>16.05971781733514</v>
+        <v>16.05511716794263</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16.11679344095789</v>
+        <v>16.12223170106182</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16.47511117713481</v>
+        <v>16.45622322407575</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>16.12671840767586</v>
+        <v>16.11510787741743</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>15.61951896292869</v>
+        <v>15.65691807865617</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>15.65086651394085</v>
+        <v>15.65794026961969</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>16.61640431195326</v>
+        <v>16.57159561537445</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>15.97783831779966</v>
+        <v>15.99260397151527</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>15.75664737038663</v>
+        <v>15.77430842014764</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>15.81899786722261</v>
+        <v>15.81277913523906</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>16.40775177423439</v>
+        <v>16.41574480598894</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>16.80718587411166</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>16.91353817868546</v>
+        <v>16.91353817868547</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>16.63804215128371</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>16.29160831142188</v>
+        <v>16.29985051503517</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>16.43768816313341</v>
+        <v>16.4581801504463</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>16.29916630145162</v>
+        <v>16.30594132109219</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>16.13688501367498</v>
+        <v>16.05276203446837</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>16.56590302958092</v>
+        <v>16.54562516009944</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>16.70913041081764</v>
+        <v>16.71261730883548</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>16.47254340342866</v>
+        <v>16.47225987441446</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>16.53764520300494</v>
+        <v>16.46998961005726</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>16.46282923231093</v>
+        <v>16.46892957163402</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>16.67138997113435</v>
+        <v>16.65500961675141</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>16.47024641241443</v>
+        <v>16.47139107275069</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>16.43264723145183</v>
+        <v>16.43506960049341</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>16.71464328839492</v>
+        <v>16.70449696196292</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>16.98294389288122</v>
+        <v>17.00011562852826</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>16.88404570088156</v>
+        <v>16.86544102344232</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17.21684209136118</v>
+        <v>17.20347260167463</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>17.1668027432543</v>
+        <v>17.17935729908488</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>17.32018270935274</v>
+        <v>17.33980778444178</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>17.17169567801083</v>
+        <v>17.16908683057452</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>17.41741709588994</v>
+        <v>17.37115847851262</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>16.81761849360559</v>
+        <v>16.83810656130012</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>17.08464989317082</v>
+        <v>17.06080975411369</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>16.93460606100459</v>
+        <v>16.93849586949929</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>17.14893937955113</v>
+        <v>17.16658964954814</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>16.37826875998278</v>
+        <v>16.39038504296686</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>16.47347471483909</v>
+        <v>16.44432637830481</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>16.58710752471108</v>
+        <v>16.55236550237603</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>16.48878602618407</v>
+        <v>16.49552148373109</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>16.75493821960313</v>
+        <v>16.76053583399161</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>16.94496892656156</v>
+        <v>16.93213605649401</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>16.79139351702558</v>
+        <v>16.78728378611405</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>16.83170009180036</v>
+        <v>16.86563647283848</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>16.62747014791385</v>
+        <v>16.6434897668779</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>16.76268412673834</v>
+        <v>16.78990847381394</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>16.75475214066363</v>
+        <v>16.74235538952239</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>16.77867421367462</v>
+        <v>16.75001284811216</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>17.15464845218285</v>
+        <v>17.18809467185128</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>17.10420824346156</v>
+        <v>17.1097740904899</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>17.39591091623672</v>
+        <v>17.42579035870808</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17.37612520470005</v>
+        <v>17.37135902106985</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>17.52940150422856</v>
+        <v>17.51109805132901</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>17.67255190153241</v>
+        <v>17.62342763471884</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>17.43259603516499</v>
+        <v>17.47156456572471</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>17.55711943313455</v>
+        <v>17.60103963344698</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>17.197401417432</v>
+        <v>17.20231083121622</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>17.25291676552317</v>
+        <v>17.24314887372051</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17.3071249467487</v>
+        <v>17.31017101810059</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>17.32834828143492</v>
+        <v>17.34064032323609</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>15.9620595472088</v>
+        <v>15.94748094297154</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>16.09201983138018</v>
+        <v>16.07813794021802</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>16.08388514304703</v>
+        <v>16.0987222381586</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16.8594419315402</v>
+        <v>16.94380549131365</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>17.57525172616084</v>
+        <v>17.57250468528407</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>17.42744161806561</v>
+        <v>17.43492459994849</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>17.31912985822074</v>
+        <v>17.33051918674576</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>17.2674767531459</v>
+        <v>17.2722306998044</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>16.64973713647984</v>
+        <v>16.67720781245372</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>16.74597810656663</v>
+        <v>16.75378016295145</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>16.73469039726348</v>
+        <v>16.74804072938493</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>17.19879424734327</v>
+        <v>17.19715311738945</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>16.54528082463778</v>
+        <v>16.55406298806627</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>16.7088179099467</v>
+        <v>16.73136830826946</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>16.77561418725936</v>
+        <v>16.81721930955994</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>17.92678345811344</v>
+        <v>18.01567877933917</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>18.77112425222441</v>
+        <v>18.71082309031697</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>18.51686212547306</v>
+        <v>18.51022702040007</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>18.15733813180264</v>
+        <v>18.17658109938013</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>18.06984915848691</v>
+        <v>18.11815543170952</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>17.2414041105114</v>
+        <v>17.25511214597474</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>17.29885598926422</v>
+        <v>17.34778698997421</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>17.27466096745848</v>
+        <v>17.27773173603939</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>17.87632112078051</v>
+        <v>17.880696139631</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>15.90198918732149</v>
+        <v>15.90777608314409</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>16.19928489994825</v>
+        <v>16.20835036156409</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>15.91277518453126</v>
+        <v>15.9296723746519</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>16.20263595601084</v>
+        <v>16.2047564843837</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>20.04980980188127</v>
+        <v>20.05075036008293</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>18.98678527151445</v>
+        <v>18.94418762173569</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>18.73576572305265</v>
+        <v>18.67072467749257</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>17.32358167959188</v>
+        <v>17.3046018481774</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>16.9221912637408</v>
+        <v>16.88643751966231</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>17.13996863059745</v>
+        <v>17.15006234955883</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17.18967619543297</v>
+        <v>17.1114120594184</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>16.71157341896414</v>
+        <v>16.68853703482188</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>16.78897822641206</v>
+        <v>16.7835819450699</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>17.19260766672314</v>
+        <v>17.16818599050843</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>16.89531278253092</v>
+        <v>16.88525635996649</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>16.79658737816811</v>
+        <v>16.82211839427319</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>24.09525602428559</v>
+        <v>24.17196320008478</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>21.55784804903597</v>
+        <v>21.40411198678936</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>20.98473331097188</v>
+        <v>20.89067770898128</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>18.17862986260024</v>
+        <v>18.12222350543462</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>18.03423031452395</v>
+        <v>18.06952533258209</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>18.15205227008833</v>
+        <v>18.1714526191863</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>18.26979861550861</v>
+        <v>18.23384897829163</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>17.20695730624467</v>
+        <v>17.20049898354769</v>
       </c>
     </row>
     <row r="19">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>16.02878113522923</v>
+        <v>16.03144220208114</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>15.84129399520252</v>
+        <v>15.81383748330738</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>15.93889125767081</v>
+        <v>15.9470837549389</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16.06848319637787</v>
+        <v>16.08337413185071</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>21.10192574823026</v>
+        <v>21.25918688640682</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>23.35657180544032</v>
+        <v>23.93902570732403</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>20.9280242143681</v>
+        <v>20.95256904629229</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>18.32900150095732</v>
+        <v>18.37752329095998</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>16.81058474068028</v>
+        <v>16.78017918805624</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>16.95219433790669</v>
+        <v>16.94023736450148</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>17.26346846870858</v>
+        <v>17.31322434018686</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>16.86940430655469</v>
+        <v>16.88554604237813</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>17.49489970720461</v>
+        <v>17.54229873417256</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>16.9409659342551</v>
+        <v>16.91680773308712</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>17.16096559425579</v>
+        <v>17.06219992224787</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>16.90616475500318</v>
+        <v>16.92447616483544</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>30.20629840445388</v>
+        <v>30.44506519339978</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>34.39551795229474</v>
+        <v>34.9791930559857</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>25.82790080961104</v>
+        <v>25.90119292689723</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>20.31018533226552</v>
+        <v>20.39330113368271</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>18.73774102975794</v>
+        <v>18.55943612088152</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>19.01412341083748</v>
+        <v>18.93884988942429</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>18.79231343906047</v>
+        <v>18.98143608517402</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>17.70850998544724</v>
+        <v>17.7562712698554</v>
       </c>
     </row>
     <row r="22">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>15.19278124894935</v>
+        <v>15.18505799655497</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>15.71582623168489</v>
+        <v>15.67032841155149</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>15.59658479513134</v>
+        <v>15.56246510714685</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>15.99975862010916</v>
+        <v>15.98456357649355</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>15.97396628264413</v>
+        <v>15.77547362816331</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>21.52481852433374</v>
+        <v>22.16362036678652</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>18.79925023162773</v>
+        <v>18.82089717207276</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>18.56908901622244</v>
+        <v>18.62774365310601</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>15.59679363062238</v>
+        <v>15.52767453764517</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>16.296033182506</v>
+        <v>16.26380647633007</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>15.97837684445964</v>
+        <v>15.84728361336376</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>16.53589699870675</v>
+        <v>16.50388808808671</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>16.5895080032605</v>
+        <v>16.71157754907458</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>17.01030046592089</v>
+        <v>17.06384792923556</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>17.60206156536099</v>
+        <v>17.73811140363667</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>16.91538253276203</v>
+        <v>17.02134145789358</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>35.38274802443981</v>
+        <v>35.49924995585042</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>35.93546275293434</v>
+        <v>36.27388763576743</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>23.05103029232845</v>
+        <v>23.07334587734927</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>24.5047543471353</v>
+        <v>24.46530637517965</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>18.03626122804172</v>
+        <v>18.01216024454597</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>18.18422266580276</v>
+        <v>18.35562164126663</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>18.04265086805583</v>
+        <v>17.84613282425189</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>17.71423921827335</v>
+        <v>17.69123126475895</v>
       </c>
     </row>
     <row r="25">
@@ -1633,7 +1633,7 @@
         <v>17.66984393032925</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>17.53061088042138</v>
+        <v>17.53061088042137</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>16.77804922315709</v>
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>16.22920054349893</v>
+        <v>16.21783536490694</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>16.35194353082824</v>
+        <v>16.3438807781571</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>16.30614907733139</v>
+        <v>16.33745439408176</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>16.54596215160961</v>
+        <v>16.53927229754406</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>17.22230232453258</v>
+        <v>17.25534252348733</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>17.42699215738831</v>
+        <v>17.43042059133415</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>17.42117170027976</v>
+        <v>17.40700239920766</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>17.3285338063621</v>
+        <v>17.33546682291916</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>16.64562776837832</v>
+        <v>16.64481596543309</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>16.81371162878652</v>
+        <v>16.81812861544475</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>16.82876982755455</v>
+        <v>16.84183304358562</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>16.89608859123341</v>
+        <v>16.92379859856746</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>16.54254572415625</v>
+        <v>16.52953715336525</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>16.66404646463093</v>
+        <v>16.65634425964861</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>16.68353226631985</v>
+        <v>16.68390152719389</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>16.87265854055461</v>
+        <v>16.88980594807923</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>17.81001806274439</v>
+        <v>17.77495109125583</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>17.97024097680015</v>
+        <v>18.00906065574717</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>17.95419264624918</v>
+        <v>17.97939405880298</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>17.7476208816438</v>
+        <v>17.76069064372026</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>16.9416177959158</v>
+        <v>16.93191998849738</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>17.11839882650055</v>
+        <v>17.12416008301145</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>17.13598927538114</v>
+        <v>17.14172695267903</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>17.17628829633554</v>
+        <v>17.1861778584389</v>
       </c>
     </row>
     <row r="28">
